--- a/data/constituents-financials.xlsx
+++ b/data/constituents-financials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Computer\Desktop\CIS336Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AAF7C61-E885-40B6-B6E0-6DC4CA7F7107}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{201A69EB-DCE5-404C-9A81-42A16F8936D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{8CFB621F-9549-4EAE-B583-C547A4FCF20B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1770" uniqueCount="1342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="1318">
   <si>
     <t>Symbol</t>
   </si>
@@ -3704,15 +3704,6 @@
     <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=URI</t>
   </si>
   <si>
-    <t>UTX</t>
-  </si>
-  <si>
-    <t>United Technologies</t>
-  </si>
-  <si>
-    <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=UTX</t>
-  </si>
-  <si>
     <t>UHS</t>
   </si>
   <si>
@@ -3749,15 +3740,6 @@
     <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=VLO</t>
   </si>
   <si>
-    <t>VAR</t>
-  </si>
-  <si>
-    <t>Varian Medical Systems</t>
-  </si>
-  <si>
-    <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=VAR</t>
-  </si>
-  <si>
     <t>VTR</t>
   </si>
   <si>
@@ -3803,15 +3785,6 @@
     <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=VRTX</t>
   </si>
   <si>
-    <t>VIAB</t>
-  </si>
-  <si>
-    <t>Viacom Inc.</t>
-  </si>
-  <si>
-    <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=VIAB</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
@@ -3893,15 +3866,6 @@
     <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=WFC</t>
   </si>
   <si>
-    <t>HCN</t>
-  </si>
-  <si>
-    <t>Welltower Inc.</t>
-  </si>
-  <si>
-    <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=HCN</t>
-  </si>
-  <si>
     <t>WDC</t>
   </si>
   <si>
@@ -3956,24 +3920,6 @@
     <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=WMB</t>
   </si>
   <si>
-    <t>WLTW</t>
-  </si>
-  <si>
-    <t>Willis Towers Watson</t>
-  </si>
-  <si>
-    <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=WLTW</t>
-  </si>
-  <si>
-    <t>WYN</t>
-  </si>
-  <si>
-    <t>Wyndham Worldwide</t>
-  </si>
-  <si>
-    <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=WYN</t>
-  </si>
-  <si>
     <t>WYNN</t>
   </si>
   <si>
@@ -3999,24 +3945,6 @@
   </si>
   <si>
     <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=XRX</t>
-  </si>
-  <si>
-    <t>XLNX</t>
-  </si>
-  <si>
-    <t>Xilinx Inc</t>
-  </si>
-  <si>
-    <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=XLNX</t>
-  </si>
-  <si>
-    <t>XL</t>
-  </si>
-  <si>
-    <t>XL Capital</t>
-  </si>
-  <si>
-    <t>http://www.sec.gov/cgi-bin/browse-edgar?action=getcompany&amp;CIK=XL</t>
   </si>
   <si>
     <t>XYL</t>
@@ -4413,10 +4341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13CDE51-DF8F-43BE-8C59-3A78AA57B8E4}">
-  <dimension ref="A1:N440"/>
+  <dimension ref="A1:N432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
-      <selection activeCell="A385" sqref="A385"/>
+    <sheetView tabSelected="1" topLeftCell="A416" workbookViewId="0">
+      <selection activeCell="I434" sqref="I434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -22002,37 +21930,37 @@
         <v>1223</v>
       </c>
       <c r="C401" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D401">
-        <v>127.48</v>
+        <v>114.87</v>
       </c>
       <c r="E401">
-        <v>19.260000000000002</v>
+        <v>15.36</v>
       </c>
       <c r="F401">
-        <v>2.1216943000000001</v>
+        <v>0.34153004999999997</v>
       </c>
       <c r="G401">
-        <v>5.7</v>
+        <v>7.14</v>
       </c>
       <c r="H401">
-        <v>139.24</v>
+        <v>129.74</v>
       </c>
       <c r="I401">
-        <v>107.05</v>
+        <v>95.26</v>
       </c>
       <c r="J401">
-        <v>105387272474</v>
+        <v>11116075286</v>
       </c>
       <c r="K401">
-        <v>10584000000</v>
+        <v>1676204000</v>
       </c>
       <c r="L401">
-        <v>1.7324123</v>
+        <v>1.3158662000000001</v>
       </c>
       <c r="M401">
-        <v>3.4</v>
+        <v>2.21</v>
       </c>
       <c r="N401" t="s">
         <v>1224</v>
@@ -22046,37 +21974,37 @@
         <v>1226</v>
       </c>
       <c r="C402" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D402">
-        <v>114.87</v>
+        <v>47.87</v>
       </c>
       <c r="E402">
-        <v>15.36</v>
+        <v>11.51</v>
       </c>
       <c r="F402">
-        <v>0.34153004999999997</v>
+        <v>1.8189006999999999</v>
       </c>
       <c r="G402">
-        <v>7.14</v>
+        <v>4.38</v>
       </c>
       <c r="H402">
-        <v>129.74</v>
+        <v>58.73</v>
       </c>
       <c r="I402">
-        <v>95.26</v>
+        <v>43.55</v>
       </c>
       <c r="J402">
-        <v>11116075286</v>
+        <v>11256432318</v>
       </c>
       <c r="K402">
-        <v>1676204000</v>
+        <v>0</v>
       </c>
       <c r="L402">
-        <v>1.3158662000000001</v>
+        <v>0.99849239999999995</v>
       </c>
       <c r="M402">
-        <v>2.21</v>
+        <v>1.19</v>
       </c>
       <c r="N402" t="s">
         <v>1227</v>
@@ -22090,37 +22018,37 @@
         <v>1229</v>
       </c>
       <c r="C403" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D403">
-        <v>47.87</v>
+        <v>78.75</v>
       </c>
       <c r="E403">
-        <v>11.51</v>
+        <v>25.9</v>
       </c>
       <c r="F403">
-        <v>1.8189006999999999</v>
+        <v>2.2865665000000002</v>
       </c>
       <c r="G403">
-        <v>4.38</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H403">
-        <v>58.73</v>
+        <v>82.95</v>
       </c>
       <c r="I403">
-        <v>43.55</v>
+        <v>48.05</v>
       </c>
       <c r="J403">
-        <v>11256432318</v>
+        <v>31797645904</v>
       </c>
       <c r="K403">
-        <v>0</v>
+        <v>1624441000</v>
       </c>
       <c r="L403">
-        <v>0.99849239999999995</v>
+        <v>3.7110943999999999</v>
       </c>
       <c r="M403">
-        <v>1.19</v>
+        <v>7.89</v>
       </c>
       <c r="N403" t="s">
         <v>1230</v>
@@ -22134,37 +22062,37 @@
         <v>1232</v>
       </c>
       <c r="C404" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="D404">
-        <v>78.75</v>
+        <v>86.77</v>
       </c>
       <c r="E404">
-        <v>25.9</v>
+        <v>18.739999999999998</v>
       </c>
       <c r="F404">
-        <v>2.2865665000000002</v>
+        <v>3.5618877000000002</v>
       </c>
       <c r="G404">
-        <v>2.5499999999999998</v>
+        <v>9.24</v>
       </c>
       <c r="H404">
-        <v>82.95</v>
+        <v>99.95</v>
       </c>
       <c r="I404">
-        <v>48.05</v>
+        <v>60.69</v>
       </c>
       <c r="J404">
-        <v>31797645904</v>
+        <v>39312309113</v>
       </c>
       <c r="K404">
-        <v>1624441000</v>
+        <v>5401000000</v>
       </c>
       <c r="L404">
-        <v>3.7110943999999999</v>
+        <v>0.42119180000000001</v>
       </c>
       <c r="M404">
-        <v>7.89</v>
+        <v>1.93</v>
       </c>
       <c r="N404" t="s">
         <v>1233</v>
@@ -22178,37 +22106,37 @@
         <v>1235</v>
       </c>
       <c r="C405" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="D405">
-        <v>86.77</v>
+        <v>50.92</v>
       </c>
       <c r="E405">
-        <v>18.739999999999998</v>
+        <v>12.21</v>
       </c>
       <c r="F405">
-        <v>3.5618877000000002</v>
+        <v>5.9656409999999997</v>
       </c>
       <c r="G405">
-        <v>9.24</v>
+        <v>1.86</v>
       </c>
       <c r="H405">
-        <v>99.95</v>
+        <v>72.36</v>
       </c>
       <c r="I405">
-        <v>60.69</v>
+        <v>51.8</v>
       </c>
       <c r="J405">
-        <v>39312309113</v>
+        <v>18865999082</v>
       </c>
       <c r="K405">
-        <v>5401000000</v>
+        <v>1935931000</v>
       </c>
       <c r="L405">
-        <v>0.42119180000000001</v>
+        <v>7.0740495000000001</v>
       </c>
       <c r="M405">
-        <v>1.93</v>
+        <v>1.76</v>
       </c>
       <c r="N405" t="s">
         <v>1236</v>
@@ -22222,37 +22150,37 @@
         <v>1238</v>
       </c>
       <c r="C406" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D406">
-        <v>112.82</v>
+        <v>105.62</v>
       </c>
       <c r="E406">
-        <v>29.93</v>
+        <v>29.5</v>
       </c>
       <c r="F406">
         <v>0</v>
       </c>
       <c r="G406">
-        <v>2.69</v>
+        <v>3.43</v>
       </c>
       <c r="H406">
-        <v>130.29</v>
+        <v>118.28</v>
       </c>
       <c r="I406">
-        <v>77.73</v>
+        <v>81.17</v>
       </c>
       <c r="J406">
-        <v>10692681720</v>
+        <v>10754983829</v>
       </c>
       <c r="K406">
-        <v>500600000</v>
+        <v>767864000</v>
       </c>
       <c r="L406">
-        <v>3.9652251999999999</v>
+        <v>12.401828999999999</v>
       </c>
       <c r="M406">
-        <v>7.32</v>
+        <v>10.82</v>
       </c>
       <c r="N406" t="s">
         <v>1239</v>
@@ -22266,37 +22194,37 @@
         <v>1241</v>
       </c>
       <c r="C407" t="s">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="D407">
-        <v>50.92</v>
+        <v>92.28</v>
       </c>
       <c r="E407">
-        <v>12.21</v>
+        <v>28.84</v>
       </c>
       <c r="F407">
-        <v>5.9656409999999997</v>
+        <v>0</v>
       </c>
       <c r="G407">
-        <v>1.86</v>
+        <v>3.45</v>
       </c>
       <c r="H407">
-        <v>72.36</v>
+        <v>100.54</v>
       </c>
       <c r="I407">
-        <v>51.8</v>
+        <v>75.599999999999994</v>
       </c>
       <c r="J407">
-        <v>18865999082</v>
+        <v>15594677147</v>
       </c>
       <c r="K407">
-        <v>1935931000</v>
+        <v>1011200000</v>
       </c>
       <c r="L407">
-        <v>7.0740495000000001</v>
+        <v>9.9354739999999993</v>
       </c>
       <c r="M407">
-        <v>1.76</v>
+        <v>9.34</v>
       </c>
       <c r="N407" t="s">
         <v>1242</v>
@@ -22310,37 +22238,37 @@
         <v>1244</v>
       </c>
       <c r="C408" t="s">
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="D408">
-        <v>105.62</v>
+        <v>49.04</v>
       </c>
       <c r="E408">
-        <v>29.5</v>
+        <v>13.08</v>
       </c>
       <c r="F408">
-        <v>0</v>
+        <v>4.626544</v>
       </c>
       <c r="G408">
-        <v>3.43</v>
+        <v>7.36</v>
       </c>
       <c r="H408">
-        <v>118.28</v>
+        <v>54.77</v>
       </c>
       <c r="I408">
-        <v>81.17</v>
+        <v>42.8</v>
       </c>
       <c r="J408">
-        <v>10754983829</v>
+        <v>208092277044</v>
       </c>
       <c r="K408">
-        <v>767864000</v>
+        <v>45745000000</v>
       </c>
       <c r="L408">
-        <v>12.401828999999999</v>
+        <v>1.6452544</v>
       </c>
       <c r="M408">
-        <v>10.82</v>
+        <v>7.96</v>
       </c>
       <c r="N408" t="s">
         <v>1245</v>
@@ -22354,37 +22282,37 @@
         <v>1247</v>
       </c>
       <c r="C409" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D409">
-        <v>92.28</v>
+        <v>151.6</v>
       </c>
       <c r="E409">
-        <v>28.84</v>
+        <v>252.67</v>
       </c>
       <c r="F409">
         <v>0</v>
       </c>
       <c r="G409">
-        <v>3.45</v>
+        <v>1.04</v>
       </c>
       <c r="H409">
-        <v>100.54</v>
+        <v>174.95500000000001</v>
       </c>
       <c r="I409">
-        <v>75.599999999999994</v>
+        <v>84.39</v>
       </c>
       <c r="J409">
-        <v>15594677147</v>
+        <v>39369386348</v>
       </c>
       <c r="K409">
-        <v>1011200000</v>
+        <v>97562000</v>
       </c>
       <c r="L409">
-        <v>9.9354739999999993</v>
+        <v>16.185403999999998</v>
       </c>
       <c r="M409">
-        <v>9.34</v>
+        <v>21.91</v>
       </c>
       <c r="N409" t="s">
         <v>1248</v>
@@ -22398,37 +22326,37 @@
         <v>1250</v>
       </c>
       <c r="C410" t="s">
-        <v>170</v>
+        <v>30</v>
       </c>
       <c r="D410">
-        <v>49.04</v>
+        <v>113.86</v>
       </c>
       <c r="E410">
-        <v>13.08</v>
+        <v>32.72</v>
       </c>
       <c r="F410">
-        <v>4.626544</v>
+        <v>0.70204765000000002</v>
       </c>
       <c r="G410">
-        <v>7.36</v>
+        <v>2.8</v>
       </c>
       <c r="H410">
-        <v>54.77</v>
+        <v>126.88</v>
       </c>
       <c r="I410">
-        <v>42.8</v>
+        <v>84.88</v>
       </c>
       <c r="J410">
-        <v>208092277044</v>
+        <v>270038723213</v>
       </c>
       <c r="K410">
-        <v>45745000000</v>
+        <v>13086000000</v>
       </c>
       <c r="L410">
-        <v>1.6452544</v>
+        <v>14.433654000000001</v>
       </c>
       <c r="M410">
-        <v>7.96</v>
+        <v>9.4</v>
       </c>
       <c r="N410" t="s">
         <v>1251</v>
@@ -22442,37 +22370,37 @@
         <v>1253</v>
       </c>
       <c r="C411" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="D411">
-        <v>151.6</v>
+        <v>66.180000000000007</v>
       </c>
       <c r="E411">
-        <v>252.67</v>
+        <v>16.22</v>
       </c>
       <c r="F411">
+        <v>3.7444280000000001</v>
+      </c>
+      <c r="G411">
+        <v>4.33</v>
+      </c>
+      <c r="H411">
+        <v>111.72</v>
+      </c>
+      <c r="I411">
+        <v>66.010099999999994</v>
+      </c>
+      <c r="J411">
+        <v>12778779911</v>
+      </c>
+      <c r="K411">
         <v>0</v>
       </c>
-      <c r="G411">
-        <v>1.04</v>
-      </c>
-      <c r="H411">
-        <v>174.95500000000001</v>
-      </c>
-      <c r="I411">
-        <v>84.39</v>
-      </c>
-      <c r="J411">
-        <v>39369386348</v>
-      </c>
-      <c r="K411">
-        <v>97562000</v>
-      </c>
       <c r="L411">
-        <v>16.185403999999998</v>
+        <v>7.1491002999999997</v>
       </c>
       <c r="M411">
-        <v>21.91</v>
+        <v>3.63</v>
       </c>
       <c r="N411" t="s">
         <v>1254</v>
@@ -22486,37 +22414,37 @@
         <v>1256</v>
       </c>
       <c r="C412" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D412">
-        <v>32.71</v>
+        <v>121.47</v>
       </c>
       <c r="E412">
-        <v>8.68</v>
+        <v>40.9</v>
       </c>
       <c r="F412">
-        <v>2.6220910000000002</v>
+        <v>0.77978789999999998</v>
       </c>
       <c r="G412">
-        <v>4.68</v>
+        <v>3.1</v>
       </c>
       <c r="H412">
-        <v>46.72</v>
+        <v>141.19999999999999</v>
       </c>
       <c r="I412">
-        <v>22.13</v>
+        <v>108.95</v>
       </c>
       <c r="J412">
-        <v>10601008017</v>
+        <v>16964162228</v>
       </c>
       <c r="K412">
-        <v>5600000000</v>
+        <v>970976000</v>
       </c>
       <c r="L412">
-        <v>1.0924768</v>
+        <v>5.7576875999999997</v>
       </c>
       <c r="M412">
-        <v>2.08</v>
+        <v>3.54</v>
       </c>
       <c r="N412" t="s">
         <v>1257</v>
@@ -22530,37 +22458,37 @@
         <v>1259</v>
       </c>
       <c r="C413" t="s">
-        <v>30</v>
+        <v>96</v>
       </c>
       <c r="D413">
-        <v>113.86</v>
+        <v>100.02</v>
       </c>
       <c r="E413">
-        <v>32.72</v>
+        <v>23.1</v>
       </c>
       <c r="F413">
-        <v>0.70204765000000002</v>
+        <v>1.983471</v>
       </c>
       <c r="G413">
-        <v>2.8</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="H413">
-        <v>126.88</v>
+        <v>109.98</v>
       </c>
       <c r="I413">
-        <v>84.88</v>
+        <v>66.89</v>
       </c>
       <c r="J413">
-        <v>270038723213</v>
+        <v>304680931618</v>
       </c>
       <c r="K413">
-        <v>13086000000</v>
+        <v>30721000000</v>
       </c>
       <c r="L413">
-        <v>14.433654000000001</v>
+        <v>0.82099425999999998</v>
       </c>
       <c r="M413">
-        <v>9.4</v>
+        <v>3.89</v>
       </c>
       <c r="N413" t="s">
         <v>1260</v>
@@ -22574,37 +22502,37 @@
         <v>1262</v>
       </c>
       <c r="C414" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="D414">
-        <v>66.180000000000007</v>
+        <v>68.22</v>
       </c>
       <c r="E414">
-        <v>16.22</v>
+        <v>13.38</v>
       </c>
       <c r="F414">
-        <v>3.7444280000000001</v>
+        <v>2.2368237999999998</v>
       </c>
       <c r="G414">
-        <v>4.33</v>
+        <v>3.78</v>
       </c>
       <c r="H414">
-        <v>111.72</v>
+        <v>88</v>
       </c>
       <c r="I414">
-        <v>66.010099999999994</v>
+        <v>63.82</v>
       </c>
       <c r="J414">
-        <v>12778779911</v>
+        <v>70862541911</v>
       </c>
       <c r="K414">
-        <v>0</v>
+        <v>7083000000</v>
       </c>
       <c r="L414">
-        <v>7.1491002999999997</v>
+        <v>0.59043880000000004</v>
       </c>
       <c r="M414">
-        <v>3.63</v>
+        <v>3.06</v>
       </c>
       <c r="N414" t="s">
         <v>1263</v>
@@ -22618,37 +22546,37 @@
         <v>1265</v>
       </c>
       <c r="C415" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="D415">
-        <v>121.47</v>
+        <v>79.12</v>
       </c>
       <c r="E415">
-        <v>40.9</v>
+        <v>25.36</v>
       </c>
       <c r="F415">
-        <v>0.77978789999999998</v>
+        <v>2.0800195000000001</v>
       </c>
       <c r="G415">
-        <v>3.1</v>
+        <v>2.66</v>
       </c>
       <c r="H415">
-        <v>141.19999999999999</v>
+        <v>89.73</v>
       </c>
       <c r="I415">
-        <v>108.95</v>
+        <v>69.55</v>
       </c>
       <c r="J415">
-        <v>16964162228</v>
+        <v>35488486675</v>
       </c>
       <c r="K415">
-        <v>970976000</v>
+        <v>3896000000</v>
       </c>
       <c r="L415">
-        <v>5.7576875999999997</v>
+        <v>3.2787668999999999</v>
       </c>
       <c r="M415">
-        <v>3.54</v>
+        <v>6.73</v>
       </c>
       <c r="N415" t="s">
         <v>1266</v>
@@ -22662,37 +22590,37 @@
         <v>1268</v>
       </c>
       <c r="C416" t="s">
-        <v>96</v>
+        <v>23</v>
       </c>
       <c r="D416">
-        <v>100.02</v>
+        <v>191.79</v>
       </c>
       <c r="E416">
-        <v>23.1</v>
+        <v>26.64</v>
       </c>
       <c r="F416">
-        <v>1.983471</v>
+        <v>0</v>
       </c>
       <c r="G416">
-        <v>4.3899999999999997</v>
+        <v>0.19</v>
       </c>
       <c r="H416">
-        <v>109.98</v>
+        <v>220.2</v>
       </c>
       <c r="I416">
-        <v>66.89</v>
+        <v>145.94</v>
       </c>
       <c r="J416">
-        <v>304680931618</v>
+        <v>16064078572</v>
       </c>
       <c r="K416">
-        <v>30721000000</v>
+        <v>773932000</v>
       </c>
       <c r="L416">
-        <v>0.82099425999999998</v>
+        <v>6.9824114000000002</v>
       </c>
       <c r="M416">
-        <v>3.89</v>
+        <v>6.15</v>
       </c>
       <c r="N416" t="s">
         <v>1269</v>
@@ -22706,37 +22634,37 @@
         <v>1271</v>
       </c>
       <c r="C417" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="D417">
-        <v>68.22</v>
+        <v>59.5</v>
       </c>
       <c r="E417">
-        <v>13.38</v>
+        <v>19.57</v>
       </c>
       <c r="F417">
-        <v>2.2368237999999998</v>
+        <v>3.691948</v>
       </c>
       <c r="G417">
-        <v>3.78</v>
+        <v>3.79</v>
       </c>
       <c r="H417">
-        <v>88</v>
+        <v>70.09</v>
       </c>
       <c r="I417">
-        <v>63.82</v>
+        <v>56.63</v>
       </c>
       <c r="J417">
-        <v>70862541911</v>
+        <v>18890296993</v>
       </c>
       <c r="K417">
-        <v>7083000000</v>
+        <v>2736500000</v>
       </c>
       <c r="L417">
-        <v>0.59043880000000004</v>
+        <v>2.4834196999999998</v>
       </c>
       <c r="M417">
-        <v>3.06</v>
+        <v>2.1</v>
       </c>
       <c r="N417" t="s">
         <v>1272</v>
@@ -22750,37 +22678,37 @@
         <v>1274</v>
       </c>
       <c r="C418" t="s">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="D418">
-        <v>79.12</v>
+        <v>55.4</v>
       </c>
       <c r="E418">
-        <v>25.36</v>
+        <v>13.58</v>
       </c>
       <c r="F418">
-        <v>2.0800195000000001</v>
+        <v>2.7111575999999999</v>
       </c>
       <c r="G418">
-        <v>2.66</v>
+        <v>4.07</v>
       </c>
       <c r="H418">
-        <v>89.73</v>
+        <v>66.31</v>
       </c>
       <c r="I418">
-        <v>69.55</v>
+        <v>49.27</v>
       </c>
       <c r="J418">
-        <v>35488486675</v>
+        <v>281463620775</v>
       </c>
       <c r="K418">
-        <v>3896000000</v>
+        <v>0</v>
       </c>
       <c r="L418">
-        <v>3.2787668999999999</v>
+        <v>2.8728191999999999</v>
       </c>
       <c r="M418">
-        <v>6.73</v>
+        <v>1.58</v>
       </c>
       <c r="N418" t="s">
         <v>1275</v>
@@ -22794,37 +22722,37 @@
         <v>1277</v>
       </c>
       <c r="C419" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D419">
-        <v>191.79</v>
+        <v>80.09</v>
       </c>
       <c r="E419">
-        <v>26.64</v>
+        <v>10.19</v>
       </c>
       <c r="F419">
-        <v>0</v>
+        <v>2.3892009999999999</v>
       </c>
       <c r="G419">
-        <v>0.19</v>
+        <v>1.29</v>
       </c>
       <c r="H419">
-        <v>220.2</v>
+        <v>95.77</v>
       </c>
       <c r="I419">
-        <v>145.94</v>
+        <v>71.38</v>
       </c>
       <c r="J419">
-        <v>16064078572</v>
+        <v>24760297793</v>
       </c>
       <c r="K419">
-        <v>773932000</v>
+        <v>5169000000</v>
       </c>
       <c r="L419">
-        <v>6.9824114000000002</v>
+        <v>1.245503</v>
       </c>
       <c r="M419">
-        <v>6.15</v>
+        <v>2</v>
       </c>
       <c r="N419" t="s">
         <v>1278</v>
@@ -22838,37 +22766,37 @@
         <v>1280</v>
       </c>
       <c r="C420" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D420">
-        <v>59.5</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="E420">
-        <v>19.57</v>
+        <v>10.17</v>
       </c>
       <c r="F420">
-        <v>3.691948</v>
+        <v>3.5915854</v>
       </c>
       <c r="G420">
-        <v>3.79</v>
+        <v>0.51</v>
       </c>
       <c r="H420">
-        <v>70.09</v>
+        <v>22.21</v>
       </c>
       <c r="I420">
-        <v>56.63</v>
+        <v>18.39</v>
       </c>
       <c r="J420">
-        <v>18890296993</v>
+        <v>8951609207</v>
       </c>
       <c r="K420">
-        <v>2736500000</v>
+        <v>694600000</v>
       </c>
       <c r="L420">
-        <v>2.4834196999999998</v>
+        <v>2.2267700000000001</v>
       </c>
       <c r="M420">
-        <v>2.1</v>
+        <v>12.65</v>
       </c>
       <c r="N420" t="s">
         <v>1281</v>
@@ -22882,34 +22810,34 @@
         <v>1283</v>
       </c>
       <c r="C421" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D421">
-        <v>55.4</v>
+        <v>60.93</v>
       </c>
       <c r="E421">
-        <v>13.58</v>
+        <v>23.26</v>
       </c>
       <c r="F421">
-        <v>2.7111575999999999</v>
+        <v>2.6699784000000002</v>
       </c>
       <c r="G421">
-        <v>4.07</v>
+        <v>2.77</v>
       </c>
       <c r="H421">
-        <v>66.31</v>
+        <v>71.55</v>
       </c>
       <c r="I421">
-        <v>49.27</v>
+        <v>49.23</v>
       </c>
       <c r="J421">
-        <v>281463620775</v>
+        <v>16433340688</v>
       </c>
       <c r="K421">
-        <v>0</v>
+        <v>2262300000</v>
       </c>
       <c r="L421">
-        <v>2.8728191999999999</v>
+        <v>1.075785</v>
       </c>
       <c r="M421">
         <v>1.58</v>
@@ -22929,34 +22857,34 @@
         <v>74</v>
       </c>
       <c r="D422">
-        <v>54.67</v>
+        <v>33.6</v>
       </c>
       <c r="E422">
-        <v>12.74</v>
+        <v>34.29</v>
       </c>
       <c r="F422">
-        <v>6.1538462999999997</v>
+        <v>3.7079954000000002</v>
       </c>
       <c r="G422">
-        <v>2.81</v>
+        <v>0.77</v>
       </c>
       <c r="H422">
-        <v>78.17</v>
+        <v>37.89</v>
       </c>
       <c r="I422">
-        <v>55.29</v>
+        <v>30.950399999999998</v>
       </c>
       <c r="J422">
-        <v>20943679019</v>
+        <v>26070297960</v>
       </c>
       <c r="K422">
-        <v>1908253000</v>
+        <v>1365000000</v>
       </c>
       <c r="L422">
-        <v>6.7252179999999999</v>
+        <v>3.6396793999999999</v>
       </c>
       <c r="M422">
-        <v>1.49</v>
+        <v>2.9</v>
       </c>
       <c r="N422" t="s">
         <v>1287</v>
@@ -22970,37 +22898,37 @@
         <v>1289</v>
       </c>
       <c r="C423" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D423">
-        <v>80.09</v>
+        <v>164.95</v>
       </c>
       <c r="E423">
-        <v>10.19</v>
+        <v>11.77</v>
       </c>
       <c r="F423">
-        <v>2.3892009999999999</v>
+        <v>2.5652986000000002</v>
       </c>
       <c r="G423">
-        <v>1.29</v>
+        <v>4.51</v>
       </c>
       <c r="H423">
-        <v>95.77</v>
+        <v>202.99</v>
       </c>
       <c r="I423">
-        <v>71.38</v>
+        <v>158.80000000000001</v>
       </c>
       <c r="J423">
-        <v>24760297793</v>
+        <v>12177920000</v>
       </c>
       <c r="K423">
-        <v>5169000000</v>
+        <v>1842000000</v>
       </c>
       <c r="L423">
-        <v>1.245503</v>
+        <v>0.58064795000000002</v>
       </c>
       <c r="M423">
-        <v>2</v>
+        <v>2.57</v>
       </c>
       <c r="N423" t="s">
         <v>1290</v>
@@ -23014,37 +22942,37 @@
         <v>1292</v>
       </c>
       <c r="C424" t="s">
-        <v>30</v>
+        <v>145</v>
       </c>
       <c r="D424">
-        <v>18.809999999999999</v>
+        <v>28.56</v>
       </c>
       <c r="E424">
-        <v>10.17</v>
+        <v>48.41</v>
       </c>
       <c r="F424">
-        <v>3.5915854</v>
+        <v>4</v>
       </c>
       <c r="G424">
-        <v>0.51</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="H424">
-        <v>22.21</v>
+        <v>33.67</v>
       </c>
       <c r="I424">
-        <v>18.39</v>
+        <v>26.8188</v>
       </c>
       <c r="J424">
-        <v>8951609207</v>
+        <v>24802396470</v>
       </c>
       <c r="K424">
-        <v>694600000</v>
+        <v>3955000000</v>
       </c>
       <c r="L424">
-        <v>2.2267700000000001</v>
+        <v>4.2982845000000003</v>
       </c>
       <c r="M424">
-        <v>12.65</v>
+        <v>3.01</v>
       </c>
       <c r="N424" t="s">
         <v>1293</v>
@@ -23058,37 +22986,37 @@
         <v>1295</v>
       </c>
       <c r="C425" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="D425">
-        <v>60.93</v>
+        <v>169.28</v>
       </c>
       <c r="E425">
-        <v>23.26</v>
+        <v>31.7</v>
       </c>
       <c r="F425">
-        <v>2.6699784000000002</v>
+        <v>1.1279043</v>
       </c>
       <c r="G425">
-        <v>2.77</v>
+        <v>7.27</v>
       </c>
       <c r="H425">
-        <v>71.55</v>
+        <v>203.63</v>
       </c>
       <c r="I425">
-        <v>49.23</v>
+        <v>92.67</v>
       </c>
       <c r="J425">
-        <v>16433340688</v>
+        <v>18225400525</v>
       </c>
       <c r="K425">
-        <v>2262300000</v>
+        <v>1501301000</v>
       </c>
       <c r="L425">
-        <v>1.075785</v>
+        <v>2.4786579999999998</v>
       </c>
       <c r="M425">
-        <v>1.58</v>
+        <v>51.69</v>
       </c>
       <c r="N425" t="s">
         <v>1296</v>
@@ -23102,37 +23030,37 @@
         <v>1298</v>
       </c>
       <c r="C426" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="D426">
-        <v>33.6</v>
+        <v>42.44</v>
       </c>
       <c r="E426">
-        <v>34.29</v>
+        <v>18.14</v>
       </c>
       <c r="F426">
-        <v>3.7079954000000002</v>
+        <v>3.3914273000000001</v>
       </c>
       <c r="G426">
-        <v>0.77</v>
+        <v>2.21</v>
       </c>
       <c r="H426">
-        <v>37.89</v>
+        <v>52.22</v>
       </c>
       <c r="I426">
-        <v>30.950399999999998</v>
+        <v>41.16</v>
       </c>
       <c r="J426">
-        <v>26070297960</v>
+        <v>21559611927</v>
       </c>
       <c r="K426">
-        <v>1365000000</v>
+        <v>3885828000</v>
       </c>
       <c r="L426">
-        <v>3.6396793999999999</v>
+        <v>2.5204559999999998</v>
       </c>
       <c r="M426">
-        <v>2.9</v>
+        <v>1.94</v>
       </c>
       <c r="N426" t="s">
         <v>1299</v>
@@ -23146,37 +23074,37 @@
         <v>1301</v>
       </c>
       <c r="C427" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D427">
-        <v>164.95</v>
+        <v>29.8</v>
       </c>
       <c r="E427">
-        <v>11.77</v>
+        <v>8.8699999999999992</v>
       </c>
       <c r="F427">
-        <v>2.5652986000000002</v>
+        <v>3.2071839999999998</v>
       </c>
       <c r="G427">
-        <v>4.51</v>
+        <v>0.59</v>
       </c>
       <c r="H427">
-        <v>202.99</v>
+        <v>37.42</v>
       </c>
       <c r="I427">
-        <v>158.80000000000001</v>
+        <v>26.64</v>
       </c>
       <c r="J427">
-        <v>12177920000</v>
+        <v>7938833340</v>
       </c>
       <c r="K427">
-        <v>1842000000</v>
+        <v>1191000000</v>
       </c>
       <c r="L427">
-        <v>0.58064795000000002</v>
+        <v>0.78776559999999995</v>
       </c>
       <c r="M427">
-        <v>2.57</v>
+        <v>1.49</v>
       </c>
       <c r="N427" t="s">
         <v>1302</v>
@@ -23190,37 +23118,37 @@
         <v>1304</v>
       </c>
       <c r="C428" t="s">
-        <v>145</v>
+        <v>16</v>
       </c>
       <c r="D428">
-        <v>28.56</v>
+        <v>70.239999999999995</v>
       </c>
       <c r="E428">
-        <v>48.41</v>
+        <v>30.94</v>
       </c>
       <c r="F428">
-        <v>4</v>
+        <v>1.1700794000000001</v>
       </c>
       <c r="G428">
-        <v>-0.56999999999999995</v>
+        <v>1.83</v>
       </c>
       <c r="H428">
-        <v>33.67</v>
+        <v>76.81</v>
       </c>
       <c r="I428">
-        <v>26.8188</v>
+        <v>46.86</v>
       </c>
       <c r="J428">
-        <v>24802396470</v>
+        <v>12915021000</v>
       </c>
       <c r="K428">
-        <v>3955000000</v>
+        <v>722000000</v>
       </c>
       <c r="L428">
-        <v>4.2982845000000003</v>
+        <v>2.7262094000000001</v>
       </c>
       <c r="M428">
-        <v>3.01</v>
+        <v>5.31</v>
       </c>
       <c r="N428" t="s">
         <v>1305</v>
@@ -23234,37 +23162,37 @@
         <v>1307</v>
       </c>
       <c r="C429" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="D429">
-        <v>152.36000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E429">
-        <v>18.670000000000002</v>
+        <v>27.25</v>
       </c>
       <c r="F429">
-        <v>1.3470580000000001</v>
+        <v>1.7970797999999999</v>
       </c>
       <c r="G429">
-        <v>3.07</v>
+        <v>4.07</v>
       </c>
       <c r="H429">
-        <v>165</v>
+        <v>86.93</v>
       </c>
       <c r="I429">
-        <v>120.869</v>
+        <v>62.85</v>
       </c>
       <c r="J429">
-        <v>20780269334</v>
+        <v>27003303098</v>
       </c>
       <c r="K429">
-        <v>1440000000</v>
+        <v>2289000000</v>
       </c>
       <c r="L429">
-        <v>3.4484663000000002</v>
+        <v>6.3136362999999998</v>
       </c>
       <c r="M429">
-        <v>2.1</v>
+        <v>212.08</v>
       </c>
       <c r="N429" t="s">
         <v>1308</v>
@@ -23278,37 +23206,37 @@
         <v>1310</v>
       </c>
       <c r="C430" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D430">
-        <v>113.56</v>
+        <v>115.53</v>
       </c>
       <c r="E430">
-        <v>18.77</v>
+        <v>14.32</v>
       </c>
       <c r="F430">
-        <v>1.9541778999999999</v>
+        <v>0.79483360000000003</v>
       </c>
       <c r="G430">
-        <v>5.53</v>
+        <v>9.01</v>
       </c>
       <c r="H430">
-        <v>127.96</v>
+        <v>133.49</v>
       </c>
       <c r="I430">
-        <v>80.11</v>
+        <v>108.17</v>
       </c>
       <c r="J430">
-        <v>11993835688</v>
+        <v>24454698119</v>
       </c>
       <c r="K430">
-        <v>1232000000</v>
+        <v>2007400000</v>
       </c>
       <c r="L430">
-        <v>2.7332082</v>
+        <v>3.1648953</v>
       </c>
       <c r="M430">
-        <v>18.91</v>
+        <v>2.39</v>
       </c>
       <c r="N430" t="s">
         <v>1311</v>
@@ -23322,37 +23250,37 @@
         <v>1313</v>
       </c>
       <c r="C431" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="D431">
-        <v>169.28</v>
+        <v>50.71</v>
       </c>
       <c r="E431">
-        <v>31.7</v>
+        <v>17.73</v>
       </c>
       <c r="F431">
-        <v>1.1279043</v>
+        <v>1.4809330000000001</v>
       </c>
       <c r="G431">
-        <v>7.27</v>
+        <v>2.6</v>
       </c>
       <c r="H431">
-        <v>203.63</v>
+        <v>55.61</v>
       </c>
       <c r="I431">
-        <v>92.67</v>
+        <v>38.43</v>
       </c>
       <c r="J431">
-        <v>18225400525</v>
+        <v>10670678640</v>
       </c>
       <c r="K431">
-        <v>1501301000</v>
+        <v>0</v>
       </c>
       <c r="L431">
-        <v>2.4786579999999998</v>
+        <v>3.7945793000000001</v>
       </c>
       <c r="M431">
-        <v>51.69</v>
+        <v>1.42</v>
       </c>
       <c r="N431" t="s">
         <v>1314</v>
@@ -23366,392 +23294,40 @@
         <v>1316</v>
       </c>
       <c r="C432" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D432">
-        <v>42.44</v>
+        <v>71.510000000000005</v>
       </c>
       <c r="E432">
-        <v>18.14</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F432">
-        <v>3.3914273000000001</v>
+        <v>0.68237203000000002</v>
       </c>
       <c r="G432">
-        <v>2.21</v>
+        <v>1.65</v>
       </c>
       <c r="H432">
-        <v>52.22</v>
+        <v>80.13</v>
       </c>
       <c r="I432">
-        <v>41.16</v>
+        <v>52</v>
       </c>
       <c r="J432">
-        <v>21559611927</v>
+        <v>35991109776</v>
       </c>
       <c r="K432">
-        <v>3885828000</v>
+        <v>1734000000</v>
       </c>
       <c r="L432">
-        <v>2.5204559999999998</v>
+        <v>9.2808960000000003</v>
       </c>
       <c r="M432">
-        <v>1.94</v>
+        <v>18.09</v>
       </c>
       <c r="N432" t="s">
         <v>1317</v>
-      </c>
-    </row>
-    <row r="433" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A433" t="s">
-        <v>1318</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1319</v>
-      </c>
-      <c r="C433" t="s">
-        <v>30</v>
-      </c>
-      <c r="D433">
-        <v>29.8</v>
-      </c>
-      <c r="E433">
-        <v>8.8699999999999992</v>
-      </c>
-      <c r="F433">
-        <v>3.2071839999999998</v>
-      </c>
-      <c r="G433">
-        <v>0.59</v>
-      </c>
-      <c r="H433">
-        <v>37.42</v>
-      </c>
-      <c r="I433">
-        <v>26.64</v>
-      </c>
-      <c r="J433">
-        <v>7938833340</v>
-      </c>
-      <c r="K433">
-        <v>1191000000</v>
-      </c>
-      <c r="L433">
-        <v>0.78776559999999995</v>
-      </c>
-      <c r="M433">
-        <v>1.49</v>
-      </c>
-      <c r="N433" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="434" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A434" t="s">
-        <v>1321</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1322</v>
-      </c>
-      <c r="C434" t="s">
-        <v>30</v>
-      </c>
-      <c r="D434">
-        <v>62.82</v>
-      </c>
-      <c r="E434">
-        <v>27.19</v>
-      </c>
-      <c r="F434">
-        <v>2.0904881999999998</v>
-      </c>
-      <c r="G434">
-        <v>2.3199999999999998</v>
-      </c>
-      <c r="H434">
-        <v>77.260000000000005</v>
-      </c>
-      <c r="I434">
-        <v>54.99</v>
-      </c>
-      <c r="J434">
-        <v>17064975551</v>
-      </c>
-      <c r="K434">
-        <v>845468000</v>
-      </c>
-      <c r="L434">
-        <v>7.1012060000000004</v>
-      </c>
-      <c r="M434">
-        <v>7.22</v>
-      </c>
-      <c r="N434" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="435" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A435" t="s">
-        <v>1324</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C435" t="s">
-        <v>51</v>
-      </c>
-      <c r="D435">
-        <v>41.26</v>
-      </c>
-      <c r="E435">
-        <v>-19.93</v>
-      </c>
-      <c r="F435">
-        <v>2.0952381999999998</v>
-      </c>
-      <c r="G435">
-        <v>-2.2400000000000002</v>
-      </c>
-      <c r="H435">
-        <v>47.27</v>
-      </c>
-      <c r="I435">
-        <v>33.770000000000003</v>
-      </c>
-      <c r="J435">
-        <v>10753423590</v>
-      </c>
-      <c r="K435">
-        <v>0</v>
-      </c>
-      <c r="L435">
-        <v>0.84394186999999998</v>
-      </c>
-      <c r="M435">
-        <v>0.97</v>
-      </c>
-      <c r="N435" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="436" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A436" t="s">
-        <v>1327</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C436" t="s">
-        <v>16</v>
-      </c>
-      <c r="D436">
-        <v>70.239999999999995</v>
-      </c>
-      <c r="E436">
-        <v>30.94</v>
-      </c>
-      <c r="F436">
-        <v>1.1700794000000001</v>
-      </c>
-      <c r="G436">
-        <v>1.83</v>
-      </c>
-      <c r="H436">
-        <v>76.81</v>
-      </c>
-      <c r="I436">
-        <v>46.86</v>
-      </c>
-      <c r="J436">
-        <v>12915021000</v>
-      </c>
-      <c r="K436">
-        <v>722000000</v>
-      </c>
-      <c r="L436">
-        <v>2.7262094000000001</v>
-      </c>
-      <c r="M436">
-        <v>5.31</v>
-      </c>
-      <c r="N436" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="437" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A437" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C437" t="s">
-        <v>40</v>
-      </c>
-      <c r="D437">
-        <v>76.3</v>
-      </c>
-      <c r="E437">
-        <v>27.25</v>
-      </c>
-      <c r="F437">
-        <v>1.7970797999999999</v>
-      </c>
-      <c r="G437">
-        <v>4.07</v>
-      </c>
-      <c r="H437">
-        <v>86.93</v>
-      </c>
-      <c r="I437">
-        <v>62.85</v>
-      </c>
-      <c r="J437">
-        <v>27003303098</v>
-      </c>
-      <c r="K437">
-        <v>2289000000</v>
-      </c>
-      <c r="L437">
-        <v>6.3136362999999998</v>
-      </c>
-      <c r="M437">
-        <v>212.08</v>
-      </c>
-      <c r="N437" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="438" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A438" t="s">
-        <v>1333</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C438" t="s">
-        <v>23</v>
-      </c>
-      <c r="D438">
-        <v>115.53</v>
-      </c>
-      <c r="E438">
-        <v>14.32</v>
-      </c>
-      <c r="F438">
-        <v>0.79483360000000003</v>
-      </c>
-      <c r="G438">
-        <v>9.01</v>
-      </c>
-      <c r="H438">
-        <v>133.49</v>
-      </c>
-      <c r="I438">
-        <v>108.17</v>
-      </c>
-      <c r="J438">
-        <v>24454698119</v>
-      </c>
-      <c r="K438">
-        <v>2007400000</v>
-      </c>
-      <c r="L438">
-        <v>3.1648953</v>
-      </c>
-      <c r="M438">
-        <v>2.39</v>
-      </c>
-      <c r="N438" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="439" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A439" t="s">
-        <v>1336</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C439" t="s">
-        <v>51</v>
-      </c>
-      <c r="D439">
-        <v>50.71</v>
-      </c>
-      <c r="E439">
-        <v>17.73</v>
-      </c>
-      <c r="F439">
-        <v>1.4809330000000001</v>
-      </c>
-      <c r="G439">
-        <v>2.6</v>
-      </c>
-      <c r="H439">
-        <v>55.61</v>
-      </c>
-      <c r="I439">
-        <v>38.43</v>
-      </c>
-      <c r="J439">
-        <v>10670678640</v>
-      </c>
-      <c r="K439">
-        <v>0</v>
-      </c>
-      <c r="L439">
-        <v>3.7945793000000001</v>
-      </c>
-      <c r="M439">
-        <v>1.42</v>
-      </c>
-      <c r="N439" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="440" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A440" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B440" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C440" t="s">
-        <v>23</v>
-      </c>
-      <c r="D440">
-        <v>71.510000000000005</v>
-      </c>
-      <c r="E440">
-        <v>32.799999999999997</v>
-      </c>
-      <c r="F440">
-        <v>0.68237203000000002</v>
-      </c>
-      <c r="G440">
-        <v>1.65</v>
-      </c>
-      <c r="H440">
-        <v>80.13</v>
-      </c>
-      <c r="I440">
-        <v>52</v>
-      </c>
-      <c r="J440">
-        <v>35991109776</v>
-      </c>
-      <c r="K440">
-        <v>1734000000</v>
-      </c>
-      <c r="L440">
-        <v>9.2808960000000003</v>
-      </c>
-      <c r="M440">
-        <v>18.09</v>
-      </c>
-      <c r="N440" t="s">
-        <v>1341</v>
       </c>
     </row>
   </sheetData>
